--- a/experiments/2021_scientific_reports/results/statistics/stats_questionnaire_pss.xlsx
+++ b/experiments/2021_scientific_reports/results/statistics/stats_questionnaire_pss.xlsx
@@ -510,10 +510,10 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9654213786125183</v>
+        <v>0.9654</v>
       </c>
       <c r="C3">
-        <v>0.8574590682983398</v>
+        <v>0.8575</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -524,10 +524,10 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8455297946929932</v>
+        <v>0.8455</v>
       </c>
       <c r="C4">
-        <v>0.02495329827070236</v>
+        <v>0.025</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -606,22 +606,22 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>-0.06684334860701524</v>
+        <v>-0.0668</v>
       </c>
       <c r="H3">
-        <v>22.86755485796454</v>
+        <v>22.8676</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="J3">
-        <v>0.9472874031968208</v>
+        <v>0.9473</v>
       </c>
       <c r="K3" t="s">
         <v>23</v>
       </c>
       <c r="L3">
-        <v>-0.02570574736992056</v>
+        <v>-0.0257</v>
       </c>
     </row>
   </sheetData>
